--- a/archivos/respuestas.xlsx
+++ b/archivos/respuestas.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="RESPUESTAS" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RESPUESTAS!$A$1:$K$278</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RESPUESTAS!$A$1:$K$311</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="140">
   <si>
     <t>ID EVALUACION</t>
   </si>
@@ -186,21 +186,6 @@
     <t>Llamado al cuerpo de bomberos.</t>
   </si>
   <si>
-    <t>Totalmente deacuerdo</t>
-  </si>
-  <si>
-    <t>Deacuerdo</t>
-  </si>
-  <si>
-    <t>Ni deacuerdo ni en desacuerdo</t>
-  </si>
-  <si>
-    <t>En desacuerdo</t>
-  </si>
-  <si>
-    <t>Totalmente en desacuerdo</t>
-  </si>
-  <si>
     <t>1,20 mt.</t>
   </si>
   <si>
@@ -445,6 +430,18 @@
   </si>
   <si>
     <t>R1111.png</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Identificación peligros-elaboración de permisos-ejecución tarea</t>
+  </si>
+  <si>
+    <t>Planeación tarea – identificación peligros - verificación equipos - elaboración permisos - uso de elementos y equipos de protección - señalización - ejecución tarea</t>
   </si>
 </sst>
 </file>
@@ -468,7 +465,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -479,6 +476,24 @@
       <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -507,7 +522,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -515,6 +530,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -795,10 +813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K302"/>
+  <dimension ref="A1:K312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F313" sqref="F313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -835,16 +853,16 @@
         <v>12</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>4</v>
@@ -882,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -917,7 +935,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -952,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -987,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3426,17 +3444,17 @@
       <c r="A82" s="3">
         <v>81</v>
       </c>
-      <c r="B82" s="3">
-        <v>1</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D82" s="3">
-        <v>3</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>8</v>
+      <c r="B82">
+        <v>2</v>
+      </c>
+      <c r="C82" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82">
+        <v>4</v>
+      </c>
+      <c r="E82" t="s">
+        <v>9</v>
       </c>
       <c r="F82" s="3">
         <v>21</v>
@@ -3451,24 +3469,24 @@
         <v>54</v>
       </c>
       <c r="J82" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>82</v>
       </c>
-      <c r="B83" s="3">
-        <v>1</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D83" s="3">
-        <v>3</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>8</v>
+      <c r="B83">
+        <v>2</v>
+      </c>
+      <c r="C83" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83">
+        <v>4</v>
+      </c>
+      <c r="E83" t="s">
+        <v>9</v>
       </c>
       <c r="F83" s="3">
         <v>21</v>
@@ -3483,24 +3501,24 @@
         <v>55</v>
       </c>
       <c r="J83" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>83</v>
       </c>
-      <c r="B84" s="3">
-        <v>1</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D84" s="3">
-        <v>3</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>8</v>
+      <c r="B84">
+        <v>2</v>
+      </c>
+      <c r="C84" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84">
+        <v>4</v>
+      </c>
+      <c r="E84" t="s">
+        <v>9</v>
       </c>
       <c r="F84" s="3">
         <v>21</v>
@@ -3515,24 +3533,24 @@
         <v>56</v>
       </c>
       <c r="J84" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>84</v>
       </c>
-      <c r="B85" s="3">
-        <v>1</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D85" s="3">
-        <v>3</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>8</v>
+      <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="C85" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85">
+        <v>4</v>
+      </c>
+      <c r="E85" t="s">
+        <v>9</v>
       </c>
       <c r="F85" s="3">
         <v>21</v>
@@ -3547,33 +3565,33 @@
         <v>57</v>
       </c>
       <c r="J85" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>85</v>
       </c>
-      <c r="B86" s="3">
-        <v>1</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D86" s="3">
-        <v>3</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>8</v>
+      <c r="B86">
+        <v>2</v>
+      </c>
+      <c r="C86" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86">
+        <v>4</v>
+      </c>
+      <c r="E86" t="s">
+        <v>9</v>
       </c>
       <c r="F86" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G86" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H86" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I86" s="3" t="s">
         <v>58</v>
@@ -3586,17 +3604,17 @@
       <c r="A87" s="3">
         <v>86</v>
       </c>
-      <c r="B87" s="3">
-        <v>1</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D87" s="3">
-        <v>3</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>8</v>
+      <c r="B87">
+        <v>2</v>
+      </c>
+      <c r="C87" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87">
+        <v>4</v>
+      </c>
+      <c r="E87" t="s">
+        <v>9</v>
       </c>
       <c r="F87" s="3">
         <v>22</v>
@@ -3605,30 +3623,30 @@
         <v>2</v>
       </c>
       <c r="H87" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="J87" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>87</v>
       </c>
-      <c r="B88" s="3">
-        <v>1</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D88" s="3">
-        <v>3</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>8</v>
+      <c r="B88">
+        <v>2</v>
+      </c>
+      <c r="C88" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88">
+        <v>4</v>
+      </c>
+      <c r="E88" t="s">
+        <v>9</v>
       </c>
       <c r="F88" s="3">
         <v>22</v>
@@ -3637,30 +3655,30 @@
         <v>2</v>
       </c>
       <c r="H88" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J88" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>88</v>
       </c>
-      <c r="B89" s="3">
-        <v>1</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D89" s="3">
-        <v>3</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>8</v>
+      <c r="B89">
+        <v>2</v>
+      </c>
+      <c r="C89" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89">
+        <v>4</v>
+      </c>
+      <c r="E89" t="s">
+        <v>9</v>
       </c>
       <c r="F89" s="3">
         <v>22</v>
@@ -3669,94 +3687,94 @@
         <v>2</v>
       </c>
       <c r="H89" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="J89" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>89</v>
       </c>
-      <c r="B90" s="3">
-        <v>1</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D90" s="3">
-        <v>3</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>8</v>
+      <c r="B90">
+        <v>2</v>
+      </c>
+      <c r="C90" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90">
+        <v>4</v>
+      </c>
+      <c r="E90" t="s">
+        <v>9</v>
       </c>
       <c r="F90" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G90" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H90" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J90" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>90</v>
       </c>
-      <c r="B91" s="3">
-        <v>1</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D91" s="3">
-        <v>3</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
+      <c r="B91">
+        <v>2</v>
+      </c>
+      <c r="C91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91">
+        <v>4</v>
+      </c>
+      <c r="E91" t="s">
+        <v>9</v>
       </c>
       <c r="F91" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G91" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H91" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J91" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>91</v>
       </c>
-      <c r="B92" s="3">
-        <v>1</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D92" s="3">
-        <v>3</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>8</v>
+      <c r="B92">
+        <v>2</v>
+      </c>
+      <c r="C92" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92">
+        <v>4</v>
+      </c>
+      <c r="E92" t="s">
+        <v>9</v>
       </c>
       <c r="F92" s="3">
         <v>23</v>
@@ -3765,30 +3783,30 @@
         <v>3</v>
       </c>
       <c r="H92" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J92" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>92</v>
       </c>
-      <c r="B93" s="3">
-        <v>1</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D93" s="3">
-        <v>3</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>8</v>
+      <c r="B93">
+        <v>2</v>
+      </c>
+      <c r="C93" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93">
+        <v>4</v>
+      </c>
+      <c r="E93" t="s">
+        <v>9</v>
       </c>
       <c r="F93" s="3">
         <v>23</v>
@@ -3797,109 +3815,109 @@
         <v>3</v>
       </c>
       <c r="H93" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="J93" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>93</v>
       </c>
-      <c r="B94" s="3">
-        <v>1</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D94" s="3">
-        <v>3</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>8</v>
+      <c r="B94">
+        <v>2</v>
+      </c>
+      <c r="C94" t="s">
+        <v>6</v>
+      </c>
+      <c r="D94">
+        <v>4</v>
+      </c>
+      <c r="E94" t="s">
+        <v>9</v>
       </c>
       <c r="F94" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G94" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H94" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="J94" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>94</v>
       </c>
-      <c r="B95" s="3">
-        <v>1</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D95" s="3">
-        <v>3</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>8</v>
+      <c r="B95">
+        <v>2</v>
+      </c>
+      <c r="C95" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95">
+        <v>4</v>
+      </c>
+      <c r="E95" t="s">
+        <v>9</v>
       </c>
       <c r="F95" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G95" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H95" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="J95" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>95</v>
       </c>
-      <c r="B96" s="3">
-        <v>1</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D96" s="3">
-        <v>3</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>8</v>
+      <c r="B96">
+        <v>2</v>
+      </c>
+      <c r="C96" t="s">
+        <v>6</v>
+      </c>
+      <c r="D96">
+        <v>4</v>
+      </c>
+      <c r="E96" t="s">
+        <v>9</v>
       </c>
       <c r="F96" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G96" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H96" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="J96" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3922,13 +3940,13 @@
         <v>24</v>
       </c>
       <c r="G97" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H97" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="J97" s="3">
         <v>0</v>
@@ -3951,16 +3969,16 @@
         <v>9</v>
       </c>
       <c r="F98" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G98" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H98" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="J98" s="3">
         <v>0</v>
@@ -3983,19 +4001,19 @@
         <v>9</v>
       </c>
       <c r="F99" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G99" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H99" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="J99" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4015,19 +4033,19 @@
         <v>9</v>
       </c>
       <c r="F100" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G100" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H100" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4050,16 +4068,16 @@
         <v>25</v>
       </c>
       <c r="G101" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H101" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="J101" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4079,16 +4097,16 @@
         <v>9</v>
       </c>
       <c r="F102" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G102" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H102" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="J102" s="3">
         <v>0</v>
@@ -4111,16 +4129,16 @@
         <v>9</v>
       </c>
       <c r="F103" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G103" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H103" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="J103" s="3">
         <v>0</v>
@@ -4143,16 +4161,16 @@
         <v>9</v>
       </c>
       <c r="F104" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G104" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H104" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="J104" s="3">
         <v>0</v>
@@ -4178,16 +4196,16 @@
         <v>26</v>
       </c>
       <c r="G105" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H105" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="J105" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4207,16 +4225,16 @@
         <v>9</v>
       </c>
       <c r="F106" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G106" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H106" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="J106" s="3">
         <v>0</v>
@@ -4239,19 +4257,19 @@
         <v>9</v>
       </c>
       <c r="F107" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G107" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H107" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="J107" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4271,19 +4289,19 @@
         <v>9</v>
       </c>
       <c r="F108" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G108" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H108" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="J108" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4306,16 +4324,16 @@
         <v>27</v>
       </c>
       <c r="G109" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H109" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="J109" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4335,16 +4353,16 @@
         <v>9</v>
       </c>
       <c r="F110" s="3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G110" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H110" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J110" s="3">
         <v>0</v>
@@ -4367,19 +4385,19 @@
         <v>9</v>
       </c>
       <c r="F111" s="3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G111" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H111" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J111" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4399,16 +4417,16 @@
         <v>9</v>
       </c>
       <c r="F112" s="3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G112" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H112" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J112" s="3">
         <v>0</v>
@@ -4434,13 +4452,13 @@
         <v>28</v>
       </c>
       <c r="G113" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H113" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="J113" s="3">
         <v>0</v>
@@ -4463,16 +4481,16 @@
         <v>9</v>
       </c>
       <c r="F114" s="3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G114" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H114" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J114" s="3">
         <v>0</v>
@@ -4495,19 +4513,19 @@
         <v>9</v>
       </c>
       <c r="F115" s="3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G115" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H115" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="J115" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4527,16 +4545,16 @@
         <v>9</v>
       </c>
       <c r="F116" s="3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G116" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H116" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J116" s="3">
         <v>0</v>
@@ -4553,7 +4571,7 @@
         <v>6</v>
       </c>
       <c r="D117">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E117" t="s">
         <v>9</v>
@@ -4562,16 +4580,16 @@
         <v>29</v>
       </c>
       <c r="G117" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H117" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J117" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4585,22 +4603,22 @@
         <v>6</v>
       </c>
       <c r="D118">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E118" t="s">
         <v>9</v>
       </c>
       <c r="F118" s="3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G118" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H118" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="J118" s="3">
         <v>0</v>
@@ -4617,22 +4635,22 @@
         <v>6</v>
       </c>
       <c r="D119">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E119" t="s">
         <v>9</v>
       </c>
       <c r="F119" s="3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G119" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H119" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="J119" s="3">
         <v>0</v>
@@ -4649,22 +4667,22 @@
         <v>6</v>
       </c>
       <c r="D120">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E120" t="s">
         <v>9</v>
       </c>
       <c r="F120" s="3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G120" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H120" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="J120" s="3">
         <v>1</v>
@@ -4681,7 +4699,7 @@
         <v>6</v>
       </c>
       <c r="D121">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E121" t="s">
         <v>9</v>
@@ -4690,13 +4708,13 @@
         <v>30</v>
       </c>
       <c r="G121" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H121" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="J121" s="3">
         <v>0</v>
@@ -4713,22 +4731,22 @@
         <v>6</v>
       </c>
       <c r="D122">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E122" t="s">
         <v>9</v>
       </c>
       <c r="F122" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G122" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H122" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="J122" s="3">
         <v>1</v>
@@ -4745,22 +4763,22 @@
         <v>6</v>
       </c>
       <c r="D123">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E123" t="s">
         <v>9</v>
       </c>
       <c r="F123" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G123" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H123" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="J123" s="3">
         <v>0</v>
@@ -4777,22 +4795,22 @@
         <v>6</v>
       </c>
       <c r="D124">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E124" t="s">
         <v>9</v>
       </c>
       <c r="F124" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G124" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H124" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="J124" s="3">
         <v>0</v>
@@ -4809,7 +4827,7 @@
         <v>6</v>
       </c>
       <c r="D125">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E125" t="s">
         <v>9</v>
@@ -4818,13 +4836,13 @@
         <v>31</v>
       </c>
       <c r="G125" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H125" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="J125" s="3">
         <v>0</v>
@@ -4841,25 +4859,25 @@
         <v>6</v>
       </c>
       <c r="D126">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E126" t="s">
         <v>9</v>
       </c>
       <c r="F126" s="3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G126" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H126" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="J126" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4873,22 +4891,22 @@
         <v>6</v>
       </c>
       <c r="D127">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E127" t="s">
         <v>9</v>
       </c>
       <c r="F127" s="3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G127" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H127" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="J127" s="3">
         <v>0</v>
@@ -4905,22 +4923,22 @@
         <v>6</v>
       </c>
       <c r="D128">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E128" t="s">
         <v>9</v>
       </c>
       <c r="F128" s="3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G128" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H128" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="J128" s="3">
         <v>0</v>
@@ -4937,7 +4955,7 @@
         <v>6</v>
       </c>
       <c r="D129">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E129" t="s">
         <v>9</v>
@@ -4946,16 +4964,16 @@
         <v>32</v>
       </c>
       <c r="G129" s="3">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H129" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I129" s="3" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="J129" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4969,25 +4987,25 @@
         <v>6</v>
       </c>
       <c r="D130">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E130" t="s">
         <v>9</v>
       </c>
       <c r="F130" s="3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G130" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H130" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="J130" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5001,22 +5019,22 @@
         <v>6</v>
       </c>
       <c r="D131">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E131" t="s">
         <v>9</v>
       </c>
       <c r="F131" s="3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G131" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H131" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="J131" s="3">
         <v>0</v>
@@ -5039,19 +5057,19 @@
         <v>9</v>
       </c>
       <c r="F132" s="3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G132" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H132" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="J132" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5074,13 +5092,13 @@
         <v>33</v>
       </c>
       <c r="G133" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H133" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I133" s="3" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="J133" s="3">
         <v>0</v>
@@ -5103,16 +5121,16 @@
         <v>9</v>
       </c>
       <c r="F134" s="3">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G134" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H134" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="J134" s="3">
         <v>0</v>
@@ -5135,19 +5153,19 @@
         <v>9</v>
       </c>
       <c r="F135" s="3">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G135" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H135" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I135" s="3" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="J135" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5167,19 +5185,19 @@
         <v>9</v>
       </c>
       <c r="F136" s="3">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G136" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H136" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="J136" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5202,16 +5220,16 @@
         <v>34</v>
       </c>
       <c r="G137" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H137" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I137" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="J137" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5231,16 +5249,16 @@
         <v>9</v>
       </c>
       <c r="F138" s="3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G138" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H138" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I138" s="3" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="J138" s="3">
         <v>0</v>
@@ -5263,16 +5281,16 @@
         <v>9</v>
       </c>
       <c r="F139" s="3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G139" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H139" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I139" s="3" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="J139" s="3">
         <v>0</v>
@@ -5295,16 +5313,16 @@
         <v>9</v>
       </c>
       <c r="F140" s="3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G140" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H140" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I140" s="3" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="J140" s="3">
         <v>0</v>
@@ -5330,16 +5348,16 @@
         <v>35</v>
       </c>
       <c r="G141" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H141" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I141" s="3" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="J141" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5359,16 +5377,16 @@
         <v>9</v>
       </c>
       <c r="F142" s="3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G142" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H142" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142" s="3" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="J142" s="3">
         <v>0</v>
@@ -5391,19 +5409,19 @@
         <v>9</v>
       </c>
       <c r="F143" s="3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G143" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H143" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I143" s="3" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="J143" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5423,19 +5441,19 @@
         <v>9</v>
       </c>
       <c r="F144" s="3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G144" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H144" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I144" s="3" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="J144" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5458,16 +5476,16 @@
         <v>36</v>
       </c>
       <c r="G145" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H145" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I145" s="3" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="J145" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5487,16 +5505,16 @@
         <v>9</v>
       </c>
       <c r="F146" s="3">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G146" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H146" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I146" s="3" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J146" s="3">
         <v>0</v>
@@ -5519,19 +5537,19 @@
         <v>9</v>
       </c>
       <c r="F147" s="3">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G147" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H147" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I147" s="3" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J147" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5551,16 +5569,16 @@
         <v>9</v>
       </c>
       <c r="F148" s="3">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G148" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H148" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I148" s="3" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J148" s="3">
         <v>0</v>
@@ -5586,13 +5604,13 @@
         <v>37</v>
       </c>
       <c r="G149" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H149" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I149" s="3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="J149" s="3">
         <v>0</v>
@@ -5615,16 +5633,16 @@
         <v>9</v>
       </c>
       <c r="F150" s="3">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G150" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H150" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I150" s="3" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J150" s="3">
         <v>0</v>
@@ -5647,19 +5665,19 @@
         <v>9</v>
       </c>
       <c r="F151" s="3">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G151" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H151" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I151" s="3" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="J151" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5679,16 +5697,16 @@
         <v>9</v>
       </c>
       <c r="F152" s="3">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G152" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H152" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I152" s="3" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J152" s="3">
         <v>0</v>
@@ -5714,16 +5732,16 @@
         <v>38</v>
       </c>
       <c r="G153" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H153" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I153" s="3" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J153" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5731,60 +5749,60 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C154" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D154">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F154" s="3">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G154" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H154" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I154" s="3" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J154" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>154</v>
       </c>
-      <c r="B155">
-        <v>2</v>
+      <c r="B155" s="3">
+        <v>3</v>
       </c>
       <c r="C155" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D155">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F155" s="3">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G155" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H155" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I155" s="3" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J155" s="3">
         <v>0</v>
@@ -5794,61 +5812,61 @@
       <c r="A156" s="3">
         <v>155</v>
       </c>
-      <c r="B156">
-        <v>2</v>
+      <c r="B156" s="3">
+        <v>3</v>
       </c>
       <c r="C156" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D156">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F156" s="3">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G156" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H156" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I156" s="3" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J156" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>156</v>
       </c>
-      <c r="B157">
-        <v>2</v>
+      <c r="B157" s="3">
+        <v>3</v>
       </c>
       <c r="C157" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D157">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F157" s="3">
         <v>39</v>
       </c>
       <c r="G157" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H157" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I157" s="3" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="J157" s="3">
         <v>0</v>
@@ -5858,61 +5876,61 @@
       <c r="A158" s="3">
         <v>157</v>
       </c>
-      <c r="B158">
-        <v>2</v>
+      <c r="B158" s="3">
+        <v>3</v>
       </c>
       <c r="C158" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D158">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F158" s="3">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G158" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H158" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I158" s="3" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="J158" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>158</v>
       </c>
-      <c r="B159">
-        <v>2</v>
+      <c r="B159" s="3">
+        <v>3</v>
       </c>
       <c r="C159" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D159">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F159" s="3">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G159" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H159" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I159" s="3" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="J159" s="3">
         <v>0</v>
@@ -5922,61 +5940,61 @@
       <c r="A160" s="3">
         <v>159</v>
       </c>
-      <c r="B160">
-        <v>2</v>
+      <c r="B160" s="3">
+        <v>3</v>
       </c>
       <c r="C160" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D160">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F160" s="3">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G160" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H160" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I160" s="3" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="J160" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>160</v>
       </c>
-      <c r="B161">
-        <v>2</v>
+      <c r="B161" s="3">
+        <v>3</v>
       </c>
       <c r="C161" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D161">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F161" s="3">
         <v>40</v>
       </c>
       <c r="G161" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H161" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I161" s="3" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="J161" s="3">
         <v>0</v>
@@ -5986,93 +6004,93 @@
       <c r="A162" s="3">
         <v>161</v>
       </c>
-      <c r="B162">
-        <v>2</v>
+      <c r="B162" s="3">
+        <v>3</v>
       </c>
       <c r="C162" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D162">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F162" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G162" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H162" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I162" s="3" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="J162" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>162</v>
       </c>
-      <c r="B163">
-        <v>2</v>
+      <c r="B163" s="3">
+        <v>3</v>
       </c>
       <c r="C163" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D163">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F163" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G163" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H163" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I163" s="3" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="J163" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>163</v>
       </c>
-      <c r="B164">
-        <v>2</v>
+      <c r="B164" s="3">
+        <v>3</v>
       </c>
       <c r="C164" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D164">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F164" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G164" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H164" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I164" s="3" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="J164" s="3">
         <v>0</v>
@@ -6082,29 +6100,29 @@
       <c r="A165" s="3">
         <v>164</v>
       </c>
-      <c r="B165">
-        <v>2</v>
+      <c r="B165" s="3">
+        <v>3</v>
       </c>
       <c r="C165" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D165">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F165" s="3">
         <v>41</v>
       </c>
       <c r="G165" s="3">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H165" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I165" s="3" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="J165" s="3">
         <v>0</v>
@@ -6114,29 +6132,29 @@
       <c r="A166" s="3">
         <v>165</v>
       </c>
-      <c r="B166">
-        <v>2</v>
+      <c r="B166" s="3">
+        <v>3</v>
       </c>
       <c r="C166" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D166">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F166" s="3">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G166" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H166" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I166" s="3" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="J166" s="3">
         <v>0</v>
@@ -6146,29 +6164,29 @@
       <c r="A167" s="3">
         <v>166</v>
       </c>
-      <c r="B167">
-        <v>2</v>
+      <c r="B167" s="3">
+        <v>3</v>
       </c>
       <c r="C167" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D167">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F167" s="3">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G167" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H167" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I167" s="3" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="J167" s="3">
         <v>0</v>
@@ -6178,29 +6196,29 @@
       <c r="A168" s="3">
         <v>167</v>
       </c>
-      <c r="B168">
-        <v>2</v>
+      <c r="B168" s="3">
+        <v>3</v>
       </c>
       <c r="C168" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D168">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F168" s="3">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G168" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H168" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I168" s="3" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="J168" s="3">
         <v>1</v>
@@ -6210,157 +6228,157 @@
       <c r="A169" s="3">
         <v>168</v>
       </c>
-      <c r="B169">
-        <v>2</v>
+      <c r="B169" s="3">
+        <v>3</v>
       </c>
       <c r="C169" t="s">
-        <v>6</v>
-      </c>
-      <c r="D169" s="3">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D169">
+        <v>7</v>
       </c>
       <c r="E169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F169" s="3">
         <v>42</v>
       </c>
       <c r="G169" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H169" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I169" s="3" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="J169" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>169</v>
       </c>
-      <c r="B170">
-        <v>2</v>
+      <c r="B170" s="3">
+        <v>3</v>
       </c>
       <c r="C170" t="s">
-        <v>6</v>
-      </c>
-      <c r="D170" s="3">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D170">
+        <v>7</v>
       </c>
       <c r="E170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F170" s="3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G170" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H170" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I170" s="3" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="J170" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>170</v>
       </c>
-      <c r="B171">
-        <v>2</v>
+      <c r="B171" s="3">
+        <v>3</v>
       </c>
       <c r="C171" t="s">
-        <v>6</v>
-      </c>
-      <c r="D171" s="3">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D171">
+        <v>7</v>
       </c>
       <c r="E171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F171" s="3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G171" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H171" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I171" s="3" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="J171" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>171</v>
       </c>
-      <c r="B172">
-        <v>2</v>
+      <c r="B172" s="3">
+        <v>3</v>
       </c>
       <c r="C172" t="s">
-        <v>6</v>
-      </c>
-      <c r="D172" s="3">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D172">
+        <v>7</v>
       </c>
       <c r="E172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F172" s="3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G172" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H172" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I172" s="3" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="J172" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>172</v>
       </c>
-      <c r="B173">
-        <v>2</v>
+      <c r="B173" s="3">
+        <v>3</v>
       </c>
       <c r="C173" t="s">
-        <v>6</v>
-      </c>
-      <c r="D173" s="3">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D173">
+        <v>7</v>
       </c>
       <c r="E173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F173" s="3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G173" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H173" s="3">
-        <v>5</v>
-      </c>
-      <c r="I173" s="3" t="s">
-        <v>58</v>
+        <v>4</v>
+      </c>
+      <c r="I173" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="J173" s="3">
         <v>1</v>
@@ -6370,317 +6388,317 @@
       <c r="A174" s="3">
         <v>173</v>
       </c>
-      <c r="B174">
-        <v>2</v>
+      <c r="B174" s="3">
+        <v>3</v>
       </c>
       <c r="C174" t="s">
+        <v>7</v>
+      </c>
+      <c r="D174">
+        <v>7</v>
+      </c>
+      <c r="E174" t="s">
+        <v>10</v>
+      </c>
+      <c r="F174" s="3">
+        <v>44</v>
+      </c>
+      <c r="G174" s="3">
         <v>6</v>
       </c>
-      <c r="D174" s="3">
-        <v>6</v>
-      </c>
-      <c r="E174" t="s">
-        <v>9</v>
-      </c>
-      <c r="F174" s="3">
-        <v>43</v>
-      </c>
-      <c r="G174" s="3">
-        <v>2</v>
-      </c>
       <c r="H174" s="3">
         <v>1</v>
       </c>
-      <c r="I174" s="3" t="s">
-        <v>54</v>
+      <c r="I174" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="J174" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>174</v>
       </c>
-      <c r="B175">
-        <v>2</v>
+      <c r="B175" s="3">
+        <v>3</v>
       </c>
       <c r="C175" t="s">
+        <v>7</v>
+      </c>
+      <c r="D175">
+        <v>7</v>
+      </c>
+      <c r="E175" t="s">
+        <v>10</v>
+      </c>
+      <c r="F175" s="3">
+        <v>44</v>
+      </c>
+      <c r="G175" s="3">
         <v>6</v>
       </c>
-      <c r="D175" s="3">
-        <v>6</v>
-      </c>
-      <c r="E175" t="s">
-        <v>9</v>
-      </c>
-      <c r="F175" s="3">
-        <v>43</v>
-      </c>
-      <c r="G175" s="3">
-        <v>2</v>
-      </c>
       <c r="H175" s="3">
         <v>2</v>
       </c>
-      <c r="I175" s="3" t="s">
-        <v>55</v>
+      <c r="I175" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="J175" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>175</v>
       </c>
-      <c r="B176">
-        <v>2</v>
+      <c r="B176" s="3">
+        <v>3</v>
       </c>
       <c r="C176" t="s">
+        <v>7</v>
+      </c>
+      <c r="D176">
+        <v>7</v>
+      </c>
+      <c r="E176" t="s">
+        <v>10</v>
+      </c>
+      <c r="F176" s="3">
+        <v>44</v>
+      </c>
+      <c r="G176" s="3">
         <v>6</v>
       </c>
-      <c r="D176" s="3">
-        <v>6</v>
-      </c>
-      <c r="E176" t="s">
-        <v>9</v>
-      </c>
-      <c r="F176" s="3">
-        <v>43</v>
-      </c>
-      <c r="G176" s="3">
-        <v>2</v>
-      </c>
       <c r="H176" s="3">
         <v>3</v>
       </c>
-      <c r="I176" s="3" t="s">
-        <v>56</v>
+      <c r="I176" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="J176" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>176</v>
       </c>
-      <c r="B177">
-        <v>2</v>
+      <c r="B177" s="3">
+        <v>3</v>
       </c>
       <c r="C177" t="s">
+        <v>7</v>
+      </c>
+      <c r="D177">
+        <v>7</v>
+      </c>
+      <c r="E177" t="s">
+        <v>10</v>
+      </c>
+      <c r="F177" s="3">
+        <v>44</v>
+      </c>
+      <c r="G177" s="3">
         <v>6</v>
       </c>
-      <c r="D177" s="3">
-        <v>6</v>
-      </c>
-      <c r="E177" t="s">
-        <v>9</v>
-      </c>
-      <c r="F177" s="3">
-        <v>43</v>
-      </c>
-      <c r="G177" s="3">
-        <v>2</v>
-      </c>
       <c r="H177" s="3">
         <v>4</v>
       </c>
-      <c r="I177" s="3" t="s">
-        <v>57</v>
+      <c r="I177" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="J177" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>177</v>
       </c>
-      <c r="B178">
-        <v>2</v>
+      <c r="B178" s="3">
+        <v>3</v>
       </c>
       <c r="C178" t="s">
-        <v>6</v>
-      </c>
-      <c r="D178" s="3">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D178">
+        <v>7</v>
       </c>
       <c r="E178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F178" s="3">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G178" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H178" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I178" s="3" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="J178" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <v>178</v>
       </c>
-      <c r="B179">
-        <v>2</v>
+      <c r="B179" s="3">
+        <v>3</v>
       </c>
       <c r="C179" t="s">
-        <v>6</v>
-      </c>
-      <c r="D179" s="3">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D179">
+        <v>7</v>
       </c>
       <c r="E179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F179" s="3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G179" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H179" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I179" s="3" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="J179" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <v>179</v>
       </c>
-      <c r="B180">
-        <v>2</v>
+      <c r="B180" s="3">
+        <v>3</v>
       </c>
       <c r="C180" t="s">
-        <v>6</v>
-      </c>
-      <c r="D180" s="3">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D180">
+        <v>7</v>
       </c>
       <c r="E180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F180" s="3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G180" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H180" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I180" s="3" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="J180" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>180</v>
       </c>
-      <c r="B181">
-        <v>2</v>
+      <c r="B181" s="3">
+        <v>3</v>
       </c>
       <c r="C181" t="s">
-        <v>6</v>
-      </c>
-      <c r="D181" s="3">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D181">
+        <v>7</v>
       </c>
       <c r="E181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F181" s="3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G181" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H181" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I181" s="3" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="J181" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>181</v>
       </c>
-      <c r="B182">
-        <v>2</v>
+      <c r="B182" s="3">
+        <v>3</v>
       </c>
       <c r="C182" t="s">
-        <v>6</v>
-      </c>
-      <c r="D182" s="3">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D182">
+        <v>7</v>
       </c>
       <c r="E182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F182" s="3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G182" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H182" s="3">
-        <v>4</v>
-      </c>
-      <c r="I182" s="3" t="s">
-        <v>57</v>
+        <v>1</v>
+      </c>
+      <c r="I182" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="J182" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>182</v>
       </c>
-      <c r="B183">
-        <v>2</v>
+      <c r="B183" s="3">
+        <v>3</v>
       </c>
       <c r="C183" t="s">
-        <v>6</v>
-      </c>
-      <c r="D183" s="3">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D183">
+        <v>7</v>
       </c>
       <c r="E183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F183" s="3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G183" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H183" s="3">
-        <v>5</v>
-      </c>
-      <c r="I183" s="3" t="s">
-        <v>58</v>
+        <v>2</v>
+      </c>
+      <c r="I183" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="J183" s="3">
         <v>1</v>
@@ -6690,7 +6708,7 @@
       <c r="A184" s="3">
         <v>183</v>
       </c>
-      <c r="B184">
+      <c r="B184" s="3">
         <v>3</v>
       </c>
       <c r="C184" t="s">
@@ -6703,19 +6721,19 @@
         <v>10</v>
       </c>
       <c r="F184" s="3">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G184" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H184" s="3">
-        <v>1</v>
-      </c>
-      <c r="I184" s="3" t="s">
-        <v>94</v>
+        <v>3</v>
+      </c>
+      <c r="I184" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="J184" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6735,16 +6753,16 @@
         <v>10</v>
       </c>
       <c r="F185" s="3">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G185" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H185" s="3">
-        <v>2</v>
-      </c>
-      <c r="I185" s="3" t="s">
-        <v>95</v>
+        <v>4</v>
+      </c>
+      <c r="I185" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="J185" s="3">
         <v>0</v>
@@ -6767,16 +6785,16 @@
         <v>10</v>
       </c>
       <c r="F186" s="3">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G186" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H186" s="3">
-        <v>3</v>
-      </c>
-      <c r="I186" s="3" t="s">
-        <v>96</v>
+        <v>1</v>
+      </c>
+      <c r="I186" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="J186" s="3">
         <v>0</v>
@@ -6799,16 +6817,16 @@
         <v>10</v>
       </c>
       <c r="F187" s="3">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G187" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H187" s="3">
-        <v>4</v>
-      </c>
-      <c r="I187" s="3" t="s">
-        <v>97</v>
+        <v>2</v>
+      </c>
+      <c r="I187" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="J187" s="3">
         <v>0</v>
@@ -6831,16 +6849,16 @@
         <v>10</v>
       </c>
       <c r="F188" s="3">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G188" s="3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H188" s="3">
-        <v>1</v>
-      </c>
-      <c r="I188" s="3" t="s">
-        <v>98</v>
+        <v>3</v>
+      </c>
+      <c r="I188" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="J188" s="3">
         <v>0</v>
@@ -6863,19 +6881,19 @@
         <v>10</v>
       </c>
       <c r="F189" s="3">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G189" s="3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H189" s="3">
-        <v>2</v>
-      </c>
-      <c r="I189" s="3" t="s">
-        <v>99</v>
+        <v>4</v>
+      </c>
+      <c r="I189" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="J189" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6895,19 +6913,19 @@
         <v>10</v>
       </c>
       <c r="F190" s="3">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G190" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H190" s="3">
-        <v>3</v>
-      </c>
-      <c r="I190" s="3" t="s">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="I190" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="J190" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6927,16 +6945,16 @@
         <v>10</v>
       </c>
       <c r="F191" s="3">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G191" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H191" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I191" s="3" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="J191" s="3">
         <v>0</v>
@@ -6959,19 +6977,19 @@
         <v>10</v>
       </c>
       <c r="F192" s="3">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G192" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H192" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I192" s="3" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="J192" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6991,19 +7009,19 @@
         <v>10</v>
       </c>
       <c r="F193" s="3">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G193" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H193" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I193" s="3" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="J193" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7016,26 +7034,26 @@
       <c r="C194" t="s">
         <v>7</v>
       </c>
-      <c r="D194">
-        <v>7</v>
+      <c r="D194" s="3">
+        <v>8</v>
       </c>
       <c r="E194" t="s">
         <v>10</v>
       </c>
       <c r="F194" s="3">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G194" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H194" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I194" s="3" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="J194" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7048,23 +7066,23 @@
       <c r="C195" t="s">
         <v>7</v>
       </c>
-      <c r="D195">
-        <v>7</v>
+      <c r="D195" s="3">
+        <v>8</v>
       </c>
       <c r="E195" t="s">
         <v>10</v>
       </c>
       <c r="F195" s="3">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G195" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H195" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I195" s="3" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="J195" s="3">
         <v>0</v>
@@ -7080,23 +7098,23 @@
       <c r="C196" t="s">
         <v>7</v>
       </c>
-      <c r="D196">
-        <v>7</v>
+      <c r="D196" s="3">
+        <v>8</v>
       </c>
       <c r="E196" t="s">
         <v>10</v>
       </c>
       <c r="F196" s="3">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G196" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H196" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I196" s="3" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="J196" s="3">
         <v>0</v>
@@ -7112,23 +7130,23 @@
       <c r="C197" t="s">
         <v>7</v>
       </c>
-      <c r="D197">
-        <v>7</v>
+      <c r="D197" s="3">
+        <v>8</v>
       </c>
       <c r="E197" t="s">
         <v>10</v>
       </c>
       <c r="F197" s="3">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G197" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H197" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I197" s="3" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="J197" s="3">
         <v>0</v>
@@ -7144,26 +7162,26 @@
       <c r="C198" t="s">
         <v>7</v>
       </c>
-      <c r="D198">
-        <v>7</v>
+      <c r="D198" s="3">
+        <v>8</v>
       </c>
       <c r="E198" t="s">
         <v>10</v>
       </c>
       <c r="F198" s="3">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G198" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H198" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I198" s="3" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="J198" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7176,23 +7194,23 @@
       <c r="C199" t="s">
         <v>7</v>
       </c>
-      <c r="D199">
-        <v>7</v>
+      <c r="D199" s="3">
+        <v>8</v>
       </c>
       <c r="E199" t="s">
         <v>10</v>
       </c>
       <c r="F199" s="3">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G199" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H199" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I199" s="3" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="J199" s="3">
         <v>0</v>
@@ -7208,26 +7226,26 @@
       <c r="C200" t="s">
         <v>7</v>
       </c>
-      <c r="D200">
-        <v>7</v>
+      <c r="D200" s="3">
+        <v>8</v>
       </c>
       <c r="E200" t="s">
         <v>10</v>
       </c>
       <c r="F200" s="3">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G200" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H200" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I200" s="3" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="J200" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7240,23 +7258,23 @@
       <c r="C201" t="s">
         <v>7</v>
       </c>
-      <c r="D201">
-        <v>7</v>
+      <c r="D201" s="3">
+        <v>8</v>
       </c>
       <c r="E201" t="s">
         <v>10</v>
       </c>
       <c r="F201" s="3">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G201" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H201" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I201" s="3" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="J201" s="3">
         <v>0</v>
@@ -7272,23 +7290,23 @@
       <c r="C202" t="s">
         <v>7</v>
       </c>
-      <c r="D202">
-        <v>7</v>
+      <c r="D202" s="3">
+        <v>8</v>
       </c>
       <c r="E202" t="s">
         <v>10</v>
       </c>
       <c r="F202" s="3">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G202" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H202" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I202" s="3" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="J202" s="3">
         <v>0</v>
@@ -7304,23 +7322,23 @@
       <c r="C203" t="s">
         <v>7</v>
       </c>
-      <c r="D203">
-        <v>7</v>
+      <c r="D203" s="3">
+        <v>8</v>
       </c>
       <c r="E203" t="s">
         <v>10</v>
       </c>
       <c r="F203" s="3">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G203" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H203" s="3">
-        <v>4</v>
-      </c>
-      <c r="I203" s="4" t="s">
-        <v>113</v>
+        <v>2</v>
+      </c>
+      <c r="I203" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="J203" s="3">
         <v>1</v>
@@ -7336,26 +7354,26 @@
       <c r="C204" t="s">
         <v>7</v>
       </c>
-      <c r="D204">
-        <v>7</v>
+      <c r="D204" s="3">
+        <v>8</v>
       </c>
       <c r="E204" t="s">
         <v>10</v>
       </c>
       <c r="F204" s="3">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G204" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H204" s="3">
-        <v>1</v>
-      </c>
-      <c r="I204" s="4" t="s">
-        <v>114</v>
+        <v>3</v>
+      </c>
+      <c r="I204" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="J204" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7368,23 +7386,23 @@
       <c r="C205" t="s">
         <v>7</v>
       </c>
-      <c r="D205">
-        <v>7</v>
+      <c r="D205" s="3">
+        <v>8</v>
       </c>
       <c r="E205" t="s">
         <v>10</v>
       </c>
       <c r="F205" s="3">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G205" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H205" s="3">
-        <v>2</v>
-      </c>
-      <c r="I205" s="4" t="s">
-        <v>115</v>
+        <v>4</v>
+      </c>
+      <c r="I205" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="J205" s="3">
         <v>0</v>
@@ -7400,23 +7418,23 @@
       <c r="C206" t="s">
         <v>7</v>
       </c>
-      <c r="D206">
-        <v>7</v>
+      <c r="D206" s="3">
+        <v>8</v>
       </c>
       <c r="E206" t="s">
         <v>10</v>
       </c>
       <c r="F206" s="3">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G206" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H206" s="3">
-        <v>3</v>
-      </c>
-      <c r="I206" s="4" t="s">
-        <v>116</v>
+        <v>1</v>
+      </c>
+      <c r="I206" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="J206" s="3">
         <v>0</v>
@@ -7432,23 +7450,23 @@
       <c r="C207" t="s">
         <v>7</v>
       </c>
-      <c r="D207">
-        <v>7</v>
+      <c r="D207" s="3">
+        <v>8</v>
       </c>
       <c r="E207" t="s">
         <v>10</v>
       </c>
       <c r="F207" s="3">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G207" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H207" s="3">
-        <v>4</v>
-      </c>
-      <c r="I207" s="4" t="s">
-        <v>117</v>
+        <v>2</v>
+      </c>
+      <c r="I207" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="J207" s="3">
         <v>0</v>
@@ -7464,26 +7482,26 @@
       <c r="C208" t="s">
         <v>7</v>
       </c>
-      <c r="D208">
-        <v>7</v>
+      <c r="D208" s="3">
+        <v>8</v>
       </c>
       <c r="E208" t="s">
         <v>10</v>
       </c>
       <c r="F208" s="3">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G208" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H208" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I208" s="3" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="J208" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7496,26 +7514,26 @@
       <c r="C209" t="s">
         <v>7</v>
       </c>
-      <c r="D209">
-        <v>7</v>
+      <c r="D209" s="3">
+        <v>8</v>
       </c>
       <c r="E209" t="s">
         <v>10</v>
       </c>
       <c r="F209" s="3">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G209" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H209" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I209" s="3" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="J209" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7528,23 +7546,23 @@
       <c r="C210" t="s">
         <v>7</v>
       </c>
-      <c r="D210">
-        <v>7</v>
+      <c r="D210" s="3">
+        <v>8</v>
       </c>
       <c r="E210" t="s">
         <v>10</v>
       </c>
       <c r="F210" s="3">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G210" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H210" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I210" s="3" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="J210" s="3">
         <v>0</v>
@@ -7560,23 +7578,23 @@
       <c r="C211" t="s">
         <v>7</v>
       </c>
-      <c r="D211">
-        <v>7</v>
+      <c r="D211" s="3">
+        <v>8</v>
       </c>
       <c r="E211" t="s">
         <v>10</v>
       </c>
       <c r="F211" s="3">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G211" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H211" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I211" s="3" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="J211" s="3">
         <v>0</v>
@@ -7592,23 +7610,23 @@
       <c r="C212" t="s">
         <v>7</v>
       </c>
-      <c r="D212">
-        <v>7</v>
+      <c r="D212" s="3">
+        <v>8</v>
       </c>
       <c r="E212" t="s">
         <v>10</v>
       </c>
       <c r="F212" s="3">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G212" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H212" s="3">
-        <v>1</v>
-      </c>
-      <c r="I212" s="4" t="s">
-        <v>122</v>
+        <v>3</v>
+      </c>
+      <c r="I212" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="J212" s="3">
         <v>0</v>
@@ -7624,23 +7642,23 @@
       <c r="C213" t="s">
         <v>7</v>
       </c>
-      <c r="D213">
-        <v>7</v>
+      <c r="D213" s="3">
+        <v>8</v>
       </c>
       <c r="E213" t="s">
         <v>10</v>
       </c>
       <c r="F213" s="3">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G213" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H213" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I213" s="4" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="J213" s="3">
         <v>1</v>
@@ -7656,26 +7674,26 @@
       <c r="C214" t="s">
         <v>7</v>
       </c>
-      <c r="D214">
-        <v>7</v>
+      <c r="D214" s="3">
+        <v>8</v>
       </c>
       <c r="E214" t="s">
         <v>10</v>
       </c>
       <c r="F214" s="3">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G214" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H214" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I214" s="4" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="J214" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7688,23 +7706,23 @@
       <c r="C215" t="s">
         <v>7</v>
       </c>
-      <c r="D215">
-        <v>7</v>
+      <c r="D215" s="3">
+        <v>8</v>
       </c>
       <c r="E215" t="s">
         <v>10</v>
       </c>
       <c r="F215" s="3">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G215" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H215" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I215" s="4" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="J215" s="3">
         <v>0</v>
@@ -7720,23 +7738,23 @@
       <c r="C216" t="s">
         <v>7</v>
       </c>
-      <c r="D216">
-        <v>7</v>
+      <c r="D216" s="3">
+        <v>8</v>
       </c>
       <c r="E216" t="s">
         <v>10</v>
       </c>
       <c r="F216" s="3">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G216" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H216" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I216" s="4" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="J216" s="3">
         <v>0</v>
@@ -7752,23 +7770,23 @@
       <c r="C217" t="s">
         <v>7</v>
       </c>
-      <c r="D217">
-        <v>7</v>
+      <c r="D217" s="3">
+        <v>8</v>
       </c>
       <c r="E217" t="s">
         <v>10</v>
       </c>
       <c r="F217" s="3">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G217" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H217" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I217" s="4" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="J217" s="3">
         <v>0</v>
@@ -7784,23 +7802,23 @@
       <c r="C218" t="s">
         <v>7</v>
       </c>
-      <c r="D218">
-        <v>7</v>
+      <c r="D218" s="3">
+        <v>8</v>
       </c>
       <c r="E218" t="s">
         <v>10</v>
       </c>
       <c r="F218" s="3">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G218" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H218" s="3">
-        <v>3</v>
-      </c>
-      <c r="I218" s="4" t="s">
-        <v>128</v>
+        <v>1</v>
+      </c>
+      <c r="I218" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="J218" s="3">
         <v>0</v>
@@ -7816,23 +7834,23 @@
       <c r="C219" t="s">
         <v>7</v>
       </c>
-      <c r="D219">
-        <v>7</v>
+      <c r="D219" s="3">
+        <v>8</v>
       </c>
       <c r="E219" t="s">
         <v>10</v>
       </c>
       <c r="F219" s="3">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G219" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H219" s="3">
-        <v>4</v>
-      </c>
-      <c r="I219" s="4" t="s">
-        <v>21</v>
+        <v>2</v>
+      </c>
+      <c r="I219" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="J219" s="3">
         <v>1</v>
@@ -7848,23 +7866,23 @@
       <c r="C220" t="s">
         <v>7</v>
       </c>
-      <c r="D220">
-        <v>7</v>
+      <c r="D220" s="3">
+        <v>8</v>
       </c>
       <c r="E220" t="s">
         <v>10</v>
       </c>
       <c r="F220" s="3">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G220" s="3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H220" s="3">
-        <v>1</v>
-      </c>
-      <c r="I220" s="4" t="s">
-        <v>129</v>
+        <v>3</v>
+      </c>
+      <c r="I220" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="J220" s="3">
         <v>0</v>
@@ -7880,23 +7898,23 @@
       <c r="C221" t="s">
         <v>7</v>
       </c>
-      <c r="D221">
-        <v>7</v>
+      <c r="D221" s="3">
+        <v>8</v>
       </c>
       <c r="E221" t="s">
         <v>10</v>
       </c>
       <c r="F221" s="3">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G221" s="3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H221" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I221" s="3" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="J221" s="3">
         <v>0</v>
@@ -7912,26 +7930,26 @@
       <c r="C222" t="s">
         <v>7</v>
       </c>
-      <c r="D222">
-        <v>7</v>
+      <c r="D222" s="3">
+        <v>8</v>
       </c>
       <c r="E222" t="s">
         <v>10</v>
       </c>
       <c r="F222" s="3">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G222" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H222" s="3">
-        <v>3</v>
-      </c>
-      <c r="I222" s="3" t="s">
-        <v>131</v>
+        <v>1</v>
+      </c>
+      <c r="I222" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="J222" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7944,26 +7962,26 @@
       <c r="C223" t="s">
         <v>7</v>
       </c>
-      <c r="D223">
-        <v>7</v>
+      <c r="D223" s="3">
+        <v>8</v>
       </c>
       <c r="E223" t="s">
         <v>10</v>
       </c>
       <c r="F223" s="3">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G223" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H223" s="3">
-        <v>4</v>
-      </c>
-      <c r="I223" s="3" t="s">
-        <v>132</v>
+        <v>2</v>
+      </c>
+      <c r="I223" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="J223" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7983,19 +8001,19 @@
         <v>10</v>
       </c>
       <c r="F224" s="3">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G224" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H224" s="3">
-        <v>1</v>
-      </c>
-      <c r="I224" s="3" t="s">
-        <v>94</v>
+        <v>3</v>
+      </c>
+      <c r="I224" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="J224" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8015,16 +8033,16 @@
         <v>10</v>
       </c>
       <c r="F225" s="3">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G225" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H225" s="3">
-        <v>2</v>
-      </c>
-      <c r="I225" s="3" t="s">
-        <v>95</v>
+        <v>4</v>
+      </c>
+      <c r="I225" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="J225" s="3">
         <v>0</v>
@@ -8047,16 +8065,16 @@
         <v>10</v>
       </c>
       <c r="F226" s="3">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G226" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H226" s="3">
-        <v>3</v>
-      </c>
-      <c r="I226" s="3" t="s">
-        <v>96</v>
+        <v>1</v>
+      </c>
+      <c r="I226" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="J226" s="3">
         <v>0</v>
@@ -8079,16 +8097,16 @@
         <v>10</v>
       </c>
       <c r="F227" s="3">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G227" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H227" s="3">
-        <v>4</v>
-      </c>
-      <c r="I227" s="3" t="s">
-        <v>97</v>
+        <v>2</v>
+      </c>
+      <c r="I227" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="J227" s="3">
         <v>0</v>
@@ -8111,16 +8129,16 @@
         <v>10</v>
       </c>
       <c r="F228" s="3">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G228" s="3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H228" s="3">
-        <v>1</v>
-      </c>
-      <c r="I228" s="3" t="s">
-        <v>98</v>
+        <v>3</v>
+      </c>
+      <c r="I228" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="J228" s="3">
         <v>0</v>
@@ -8143,19 +8161,19 @@
         <v>10</v>
       </c>
       <c r="F229" s="3">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G229" s="3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H229" s="3">
-        <v>2</v>
-      </c>
-      <c r="I229" s="3" t="s">
-        <v>99</v>
+        <v>4</v>
+      </c>
+      <c r="I229" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="J229" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8175,19 +8193,19 @@
         <v>10</v>
       </c>
       <c r="F230" s="3">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G230" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H230" s="3">
-        <v>3</v>
-      </c>
-      <c r="I230" s="3" t="s">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="I230" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="J230" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8207,16 +8225,16 @@
         <v>10</v>
       </c>
       <c r="F231" s="3">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G231" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H231" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I231" s="3" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="J231" s="3">
         <v>0</v>
@@ -8239,19 +8257,19 @@
         <v>10</v>
       </c>
       <c r="F232" s="3">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G232" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H232" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I232" s="3" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="J232" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8271,50 +8289,50 @@
         <v>10</v>
       </c>
       <c r="F233" s="3">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G233" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H233" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I233" s="3" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="J233" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="3">
         <v>233</v>
       </c>
-      <c r="B234" s="3">
-        <v>3</v>
-      </c>
-      <c r="C234" t="s">
-        <v>7</v>
-      </c>
-      <c r="D234" s="3">
-        <v>8</v>
-      </c>
-      <c r="E234" t="s">
-        <v>10</v>
-      </c>
-      <c r="F234" s="3">
-        <v>57</v>
-      </c>
-      <c r="G234" s="3">
-        <v>3</v>
-      </c>
-      <c r="H234" s="3">
-        <v>3</v>
-      </c>
-      <c r="I234" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="J234" s="3">
+      <c r="B234" s="5">
+        <v>1</v>
+      </c>
+      <c r="C234" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D234" s="5">
+        <v>3</v>
+      </c>
+      <c r="E234" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F234" s="5">
+        <v>59</v>
+      </c>
+      <c r="G234" s="5">
+        <v>1</v>
+      </c>
+      <c r="H234" s="5">
+        <v>1</v>
+      </c>
+      <c r="I234" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="J234" s="5">
         <v>0</v>
       </c>
     </row>
@@ -8323,31 +8341,31 @@
         <v>234</v>
       </c>
       <c r="B235" s="3">
-        <v>3</v>
-      </c>
-      <c r="C235" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="D235" s="3">
-        <v>8</v>
-      </c>
-      <c r="E235" t="s">
-        <v>10</v>
-      </c>
-      <c r="F235" s="3">
-        <v>57</v>
+        <v>3</v>
+      </c>
+      <c r="E235" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F235" s="5">
+        <v>59</v>
       </c>
       <c r="G235" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H235" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I235" s="3" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="J235" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8355,28 +8373,28 @@
         <v>235</v>
       </c>
       <c r="B236" s="3">
-        <v>3</v>
-      </c>
-      <c r="C236" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="D236" s="3">
-        <v>8</v>
-      </c>
-      <c r="E236" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="E236" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F236" s="3">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G236" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H236" s="3">
         <v>1</v>
       </c>
       <c r="I236" s="3" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="J236" s="3">
         <v>0</v>
@@ -8387,31 +8405,31 @@
         <v>236</v>
       </c>
       <c r="B237" s="3">
-        <v>3</v>
-      </c>
-      <c r="C237" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="D237" s="3">
-        <v>8</v>
-      </c>
-      <c r="E237" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="E237" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F237" s="3">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G237" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H237" s="3">
         <v>2</v>
       </c>
       <c r="I237" s="3" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="J237" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8419,31 +8437,31 @@
         <v>237</v>
       </c>
       <c r="B238" s="3">
-        <v>3</v>
-      </c>
-      <c r="C238" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="D238" s="3">
-        <v>8</v>
-      </c>
-      <c r="E238" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="E238" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F238" s="3">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G238" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H238" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I238" s="3" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="J238" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8451,31 +8469,31 @@
         <v>238</v>
       </c>
       <c r="B239" s="3">
-        <v>3</v>
-      </c>
-      <c r="C239" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="D239" s="3">
-        <v>8</v>
-      </c>
-      <c r="E239" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="E239" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F239" s="3">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G239" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H239" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I239" s="3" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="J239" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8483,28 +8501,28 @@
         <v>239</v>
       </c>
       <c r="B240" s="3">
-        <v>3</v>
-      </c>
-      <c r="C240" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="D240" s="3">
-        <v>8</v>
-      </c>
-      <c r="E240" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="E240" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F240" s="3">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G240" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H240" s="3">
         <v>1</v>
       </c>
       <c r="I240" s="3" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="J240" s="3">
         <v>0</v>
@@ -8515,31 +8533,31 @@
         <v>240</v>
       </c>
       <c r="B241" s="3">
-        <v>3</v>
-      </c>
-      <c r="C241" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="D241" s="3">
-        <v>8</v>
-      </c>
-      <c r="E241" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="E241" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F241" s="3">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G241" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H241" s="3">
         <v>2</v>
       </c>
       <c r="I241" s="3" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="J241" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8547,31 +8565,31 @@
         <v>241</v>
       </c>
       <c r="B242" s="3">
-        <v>3</v>
-      </c>
-      <c r="C242" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="D242" s="3">
-        <v>8</v>
-      </c>
-      <c r="E242" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="E242" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F242" s="3">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G242" s="3">
         <v>5</v>
       </c>
       <c r="H242" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I242" s="3" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="J242" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8579,31 +8597,31 @@
         <v>242</v>
       </c>
       <c r="B243" s="3">
-        <v>3</v>
-      </c>
-      <c r="C243" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="D243" s="3">
-        <v>8</v>
-      </c>
-      <c r="E243" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="E243" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F243" s="3">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G243" s="3">
         <v>5</v>
       </c>
       <c r="H243" s="3">
-        <v>4</v>
-      </c>
-      <c r="I243" s="4" t="s">
-        <v>113</v>
+        <v>2</v>
+      </c>
+      <c r="I243" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="J243" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8611,19 +8629,19 @@
         <v>243</v>
       </c>
       <c r="B244" s="3">
-        <v>3</v>
-      </c>
-      <c r="C244" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="C244" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="D244" s="3">
-        <v>8</v>
-      </c>
-      <c r="E244" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="E244" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F244" s="3">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G244" s="3">
         <v>6</v>
@@ -8631,8 +8649,8 @@
       <c r="H244" s="3">
         <v>1</v>
       </c>
-      <c r="I244" s="4" t="s">
-        <v>114</v>
+      <c r="I244" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="J244" s="3">
         <v>1</v>
@@ -8643,19 +8661,19 @@
         <v>244</v>
       </c>
       <c r="B245" s="3">
-        <v>3</v>
-      </c>
-      <c r="C245" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="D245" s="3">
-        <v>8</v>
-      </c>
-      <c r="E245" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="E245" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F245" s="3">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G245" s="3">
         <v>6</v>
@@ -8663,8 +8681,8 @@
       <c r="H245" s="3">
         <v>2</v>
       </c>
-      <c r="I245" s="4" t="s">
-        <v>115</v>
+      <c r="I245" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="J245" s="3">
         <v>0</v>
@@ -8675,31 +8693,31 @@
         <v>245</v>
       </c>
       <c r="B246" s="3">
-        <v>3</v>
-      </c>
-      <c r="C246" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="D246" s="3">
-        <v>8</v>
-      </c>
-      <c r="E246" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="E246" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F246" s="3">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G246" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H246" s="3">
-        <v>3</v>
-      </c>
-      <c r="I246" s="4" t="s">
-        <v>116</v>
+        <v>1</v>
+      </c>
+      <c r="I246" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="J246" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8707,28 +8725,28 @@
         <v>246</v>
       </c>
       <c r="B247" s="3">
-        <v>3</v>
-      </c>
-      <c r="C247" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="D247" s="3">
-        <v>8</v>
-      </c>
-      <c r="E247" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="E247" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F247" s="3">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G247" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H247" s="3">
-        <v>4</v>
-      </c>
-      <c r="I247" s="4" t="s">
-        <v>117</v>
+        <v>2</v>
+      </c>
+      <c r="I247" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="J247" s="3">
         <v>0</v>
@@ -8739,31 +8757,31 @@
         <v>247</v>
       </c>
       <c r="B248" s="3">
-        <v>3</v>
-      </c>
-      <c r="C248" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="C248" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="D248" s="3">
-        <v>8</v>
-      </c>
-      <c r="E248" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="E248" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F248" s="3">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G248" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H248" s="3">
         <v>1</v>
       </c>
       <c r="I248" s="3" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="J248" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8771,31 +8789,31 @@
         <v>248</v>
       </c>
       <c r="B249" s="3">
-        <v>3</v>
-      </c>
-      <c r="C249" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="C249" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="D249" s="3">
-        <v>8</v>
-      </c>
-      <c r="E249" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="E249" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F249" s="3">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G249" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H249" s="3">
         <v>2</v>
       </c>
       <c r="I249" s="3" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="J249" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8803,31 +8821,31 @@
         <v>249</v>
       </c>
       <c r="B250" s="3">
-        <v>3</v>
-      </c>
-      <c r="C250" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="C250" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="D250" s="3">
-        <v>8</v>
-      </c>
-      <c r="E250" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="E250" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F250" s="3">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="G250" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H250" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I250" s="3" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="J250" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8835,28 +8853,28 @@
         <v>250</v>
       </c>
       <c r="B251" s="3">
-        <v>3</v>
-      </c>
-      <c r="C251" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="D251" s="3">
-        <v>8</v>
-      </c>
-      <c r="E251" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="E251" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F251" s="3">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="G251" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H251" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I251" s="3" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="J251" s="3">
         <v>0</v>
@@ -8867,31 +8885,31 @@
         <v>251</v>
       </c>
       <c r="B252" s="3">
-        <v>3</v>
-      </c>
-      <c r="C252" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="D252" s="3">
-        <v>8</v>
-      </c>
-      <c r="E252" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="E252" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F252" s="3">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G252" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H252" s="3">
         <v>1</v>
       </c>
-      <c r="I252" s="4" t="s">
-        <v>122</v>
+      <c r="I252" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="J252" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8899,31 +8917,31 @@
         <v>252</v>
       </c>
       <c r="B253" s="3">
-        <v>3</v>
-      </c>
-      <c r="C253" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="D253" s="3">
-        <v>8</v>
-      </c>
-      <c r="E253" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="E253" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F253" s="3">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G253" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H253" s="3">
         <v>2</v>
       </c>
-      <c r="I253" s="4" t="s">
-        <v>123</v>
+      <c r="I253" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="J253" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8931,31 +8949,31 @@
         <v>253</v>
       </c>
       <c r="B254" s="3">
-        <v>3</v>
-      </c>
-      <c r="C254" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="D254" s="3">
-        <v>8</v>
-      </c>
-      <c r="E254" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="E254" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F254" s="3">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G254" s="3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H254" s="3">
-        <v>3</v>
-      </c>
-      <c r="I254" s="4" t="s">
-        <v>133</v>
+        <v>1</v>
+      </c>
+      <c r="I254" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="J254" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8963,28 +8981,28 @@
         <v>254</v>
       </c>
       <c r="B255" s="3">
-        <v>3</v>
-      </c>
-      <c r="C255" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="D255" s="3">
-        <v>8</v>
-      </c>
-      <c r="E255" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="E255" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F255" s="3">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G255" s="3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H255" s="3">
-        <v>4</v>
-      </c>
-      <c r="I255" s="4" t="s">
-        <v>125</v>
+        <v>2</v>
+      </c>
+      <c r="I255" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="J255" s="3">
         <v>0</v>
@@ -8995,31 +9013,31 @@
         <v>255</v>
       </c>
       <c r="B256" s="3">
-        <v>3</v>
-      </c>
-      <c r="C256" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="D256" s="3">
-        <v>8</v>
-      </c>
-      <c r="E256" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="E256" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F256" s="3">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G256" s="3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H256" s="3">
         <v>1</v>
       </c>
-      <c r="I256" s="4" t="s">
-        <v>126</v>
+      <c r="I256" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="J256" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9027,258 +9045,258 @@
         <v>256</v>
       </c>
       <c r="B257" s="3">
-        <v>3</v>
-      </c>
-      <c r="C257" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="D257" s="3">
-        <v>8</v>
-      </c>
-      <c r="E257" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="E257" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F257" s="3">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G257" s="3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H257" s="3">
         <v>2</v>
       </c>
-      <c r="I257" s="4" t="s">
-        <v>127</v>
+      <c r="I257" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="J257" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="3">
         <v>257</v>
       </c>
       <c r="B258" s="3">
-        <v>3</v>
-      </c>
-      <c r="C258" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="D258" s="3">
-        <v>8</v>
-      </c>
-      <c r="E258" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="E258" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F258" s="3">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="G258" s="3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H258" s="3">
-        <v>3</v>
-      </c>
-      <c r="I258" s="4" t="s">
-        <v>128</v>
+        <v>1</v>
+      </c>
+      <c r="I258" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="J258" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="3">
         <v>258</v>
       </c>
       <c r="B259" s="3">
-        <v>3</v>
-      </c>
-      <c r="C259" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="C259" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="D259" s="3">
-        <v>8</v>
-      </c>
-      <c r="E259" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="E259" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F259" s="3">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="G259" s="3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H259" s="3">
-        <v>4</v>
-      </c>
-      <c r="I259" s="4" t="s">
-        <v>21</v>
+        <v>2</v>
+      </c>
+      <c r="I259" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="J259" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="260" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="3">
         <v>259</v>
       </c>
       <c r="B260" s="3">
-        <v>3</v>
-      </c>
-      <c r="C260" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="C260" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="D260" s="3">
-        <v>8</v>
-      </c>
-      <c r="E260" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="E260" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F260" s="3">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G260" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H260" s="3">
         <v>1</v>
       </c>
-      <c r="I260" s="4" t="s">
-        <v>129</v>
+      <c r="I260" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="J260" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="3">
         <v>260</v>
       </c>
       <c r="B261" s="3">
-        <v>3</v>
-      </c>
-      <c r="C261" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="D261" s="3">
-        <v>8</v>
-      </c>
-      <c r="E261" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="E261" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F261" s="3">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G261" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H261" s="3">
         <v>2</v>
       </c>
       <c r="I261" s="3" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="J261" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="3">
         <v>261</v>
       </c>
       <c r="B262" s="3">
-        <v>3</v>
-      </c>
-      <c r="C262" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="C262" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="D262" s="3">
-        <v>8</v>
-      </c>
-      <c r="E262" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="E262" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F262" s="3">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G262" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H262" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I262" s="3" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="J262" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="3">
         <v>262</v>
       </c>
       <c r="B263" s="3">
-        <v>3</v>
-      </c>
-      <c r="C263" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="D263" s="3">
-        <v>8</v>
-      </c>
-      <c r="E263" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="E263" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F263" s="3">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G263" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H263" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I263" s="3" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="J263" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="3">
         <v>263</v>
       </c>
-      <c r="B264" s="3">
-        <v>3</v>
-      </c>
-      <c r="C264" t="s">
-        <v>7</v>
-      </c>
-      <c r="D264" s="3">
-        <v>9</v>
-      </c>
-      <c r="E264" t="s">
-        <v>10</v>
-      </c>
-      <c r="F264" s="3">
-        <v>65</v>
-      </c>
-      <c r="G264" s="3">
-        <v>1</v>
-      </c>
-      <c r="H264" s="3">
-        <v>1</v>
-      </c>
-      <c r="I264" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J264" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="265" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B264" s="6">
+        <v>3</v>
+      </c>
+      <c r="C264" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D264" s="6">
+        <v>9</v>
+      </c>
+      <c r="E264" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F264" s="6">
+        <v>74</v>
+      </c>
+      <c r="G264" s="6">
+        <v>1</v>
+      </c>
+      <c r="H264" s="6">
+        <v>1</v>
+      </c>
+      <c r="I264" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="J264" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="3">
         <v>264</v>
       </c>
@@ -9294,8 +9312,8 @@
       <c r="E265" t="s">
         <v>10</v>
       </c>
-      <c r="F265" s="3">
-        <v>65</v>
+      <c r="F265" s="6">
+        <v>74</v>
       </c>
       <c r="G265" s="3">
         <v>1</v>
@@ -9304,13 +9322,13 @@
         <v>2</v>
       </c>
       <c r="I265" s="3" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="J265" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="266" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="3">
         <v>265</v>
       </c>
@@ -9327,22 +9345,22 @@
         <v>10</v>
       </c>
       <c r="F266" s="3">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="G266" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H266" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I266" s="3" t="s">
-        <v>56</v>
+        <v>136</v>
       </c>
       <c r="J266" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="267" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="3">
         <v>266</v>
       </c>
@@ -9359,22 +9377,22 @@
         <v>10</v>
       </c>
       <c r="F267" s="3">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="G267" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H267" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I267" s="3" t="s">
-        <v>57</v>
+        <v>137</v>
       </c>
       <c r="J267" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="268" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="3">
         <v>267</v>
       </c>
@@ -9391,22 +9409,22 @@
         <v>10</v>
       </c>
       <c r="F268" s="3">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="G268" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H268" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I268" s="3" t="s">
-        <v>58</v>
+        <v>136</v>
       </c>
       <c r="J268" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="3">
         <v>268</v>
       </c>
@@ -9423,22 +9441,22 @@
         <v>10</v>
       </c>
       <c r="F269" s="3">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="G269" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H269" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I269" s="3" t="s">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="J269" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="270" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="3">
         <v>269</v>
       </c>
@@ -9455,22 +9473,22 @@
         <v>10</v>
       </c>
       <c r="F270" s="3">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="G270" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H270" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I270" s="3" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="J270" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="271" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="3">
         <v>270</v>
       </c>
@@ -9487,22 +9505,22 @@
         <v>10</v>
       </c>
       <c r="F271" s="3">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="G271" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H271" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I271" s="3" t="s">
-        <v>56</v>
+        <v>137</v>
       </c>
       <c r="J271" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="272" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="3">
         <v>271</v>
       </c>
@@ -9519,22 +9537,22 @@
         <v>10</v>
       </c>
       <c r="F272" s="3">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="G272" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H272" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I272" s="3" t="s">
-        <v>57</v>
+        <v>136</v>
       </c>
       <c r="J272" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="273" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="3">
         <v>272</v>
       </c>
@@ -9551,22 +9569,22 @@
         <v>10</v>
       </c>
       <c r="F273" s="3">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="G273" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H273" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I273" s="3" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
       <c r="J273" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="274" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="3">
         <v>273</v>
       </c>
@@ -9583,22 +9601,22 @@
         <v>10</v>
       </c>
       <c r="F274" s="3">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="G274" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H274" s="3">
         <v>1</v>
       </c>
       <c r="I274" s="3" t="s">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="J274" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="275" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="3">
         <v>274</v>
       </c>
@@ -9615,22 +9633,22 @@
         <v>10</v>
       </c>
       <c r="F275" s="3">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="G275" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H275" s="3">
         <v>2</v>
       </c>
       <c r="I275" s="3" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="J275" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="276" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="3">
         <v>275</v>
       </c>
@@ -9647,22 +9665,22 @@
         <v>10</v>
       </c>
       <c r="F276" s="3">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="G276" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H276" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I276" s="3" t="s">
-        <v>56</v>
+        <v>136</v>
       </c>
       <c r="J276" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="277" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="3">
         <v>276</v>
       </c>
@@ -9679,22 +9697,22 @@
         <v>10</v>
       </c>
       <c r="F277" s="3">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="G277" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H277" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I277" s="3" t="s">
-        <v>57</v>
+        <v>137</v>
       </c>
       <c r="J277" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="278" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="3">
         <v>277</v>
       </c>
@@ -9711,46 +9729,1082 @@
         <v>10</v>
       </c>
       <c r="F278" s="3">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="G278" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H278" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I278" s="3" t="s">
-        <v>58</v>
+        <v>136</v>
       </c>
       <c r="J278" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="3">
+        <v>278</v>
+      </c>
+      <c r="B279" s="3">
+        <v>3</v>
+      </c>
+      <c r="C279" t="s">
+        <v>7</v>
+      </c>
+      <c r="D279" s="3">
+        <v>9</v>
+      </c>
+      <c r="E279" t="s">
+        <v>10</v>
+      </c>
+      <c r="F279" s="3">
+        <v>81</v>
+      </c>
+      <c r="G279" s="3">
+        <v>8</v>
+      </c>
+      <c r="H279" s="3">
+        <v>2</v>
+      </c>
+      <c r="I279" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="J279" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="3">
+        <v>279</v>
+      </c>
+      <c r="B280" s="3">
+        <v>3</v>
+      </c>
+      <c r="C280" t="s">
+        <v>7</v>
+      </c>
+      <c r="D280" s="3">
+        <v>9</v>
+      </c>
+      <c r="E280" t="s">
+        <v>10</v>
+      </c>
+      <c r="F280" s="3">
+        <v>82</v>
+      </c>
+      <c r="G280" s="3">
+        <v>9</v>
+      </c>
+      <c r="H280" s="3">
+        <v>1</v>
+      </c>
+      <c r="I280" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="J280" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="3">
+        <v>280</v>
+      </c>
+      <c r="B281" s="3">
+        <v>3</v>
+      </c>
+      <c r="C281" t="s">
+        <v>7</v>
+      </c>
+      <c r="D281" s="3">
+        <v>9</v>
+      </c>
+      <c r="E281" t="s">
+        <v>10</v>
+      </c>
+      <c r="F281" s="3">
+        <v>82</v>
+      </c>
+      <c r="G281" s="3">
+        <v>9</v>
+      </c>
+      <c r="H281" s="3">
+        <v>2</v>
+      </c>
+      <c r="I281" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="J281" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="3">
+        <v>281</v>
+      </c>
+      <c r="B282" s="3">
+        <v>3</v>
+      </c>
+      <c r="C282" t="s">
+        <v>7</v>
+      </c>
+      <c r="D282" s="3">
+        <v>9</v>
+      </c>
+      <c r="E282" t="s">
+        <v>10</v>
+      </c>
+      <c r="F282" s="3">
+        <v>83</v>
+      </c>
+      <c r="G282" s="3">
+        <v>10</v>
+      </c>
+      <c r="H282" s="3">
+        <v>1</v>
+      </c>
+      <c r="I282" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="J282" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="3">
+        <v>282</v>
+      </c>
+      <c r="B283" s="3">
+        <v>3</v>
+      </c>
+      <c r="C283" t="s">
+        <v>7</v>
+      </c>
+      <c r="D283" s="3">
+        <v>9</v>
+      </c>
+      <c r="E283" t="s">
+        <v>10</v>
+      </c>
+      <c r="F283" s="3">
+        <v>83</v>
+      </c>
+      <c r="G283" s="3">
+        <v>10</v>
+      </c>
+      <c r="H283" s="3">
+        <v>2</v>
+      </c>
+      <c r="I283" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="J283" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="3">
+        <v>283</v>
+      </c>
+      <c r="B284" s="3">
+        <v>3</v>
+      </c>
+      <c r="C284" t="s">
+        <v>7</v>
+      </c>
+      <c r="D284" s="3">
+        <v>9</v>
+      </c>
+      <c r="E284" t="s">
+        <v>10</v>
+      </c>
+      <c r="F284" s="3">
+        <v>84</v>
+      </c>
+      <c r="G284" s="3">
+        <v>11</v>
+      </c>
+      <c r="H284" s="3">
+        <v>1</v>
+      </c>
+      <c r="I284" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="J284" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="3">
+        <v>284</v>
+      </c>
+      <c r="B285" s="3">
+        <v>3</v>
+      </c>
+      <c r="C285" t="s">
+        <v>7</v>
+      </c>
+      <c r="D285" s="3">
+        <v>9</v>
+      </c>
+      <c r="E285" t="s">
+        <v>10</v>
+      </c>
+      <c r="F285" s="3">
+        <v>84</v>
+      </c>
+      <c r="G285" s="3">
+        <v>11</v>
+      </c>
+      <c r="H285" s="3">
+        <v>2</v>
+      </c>
+      <c r="I285" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="J285" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="3">
+        <v>285</v>
+      </c>
+      <c r="B286" s="3">
+        <v>3</v>
+      </c>
+      <c r="C286" t="s">
+        <v>7</v>
+      </c>
+      <c r="D286" s="3">
+        <v>9</v>
+      </c>
+      <c r="E286" t="s">
+        <v>10</v>
+      </c>
+      <c r="F286" s="3">
+        <v>85</v>
+      </c>
+      <c r="G286" s="3">
+        <v>12</v>
+      </c>
+      <c r="H286" s="3">
+        <v>1</v>
+      </c>
+      <c r="I286" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="J286" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="3">
+        <v>286</v>
+      </c>
+      <c r="B287" s="3">
+        <v>3</v>
+      </c>
+      <c r="C287" t="s">
+        <v>7</v>
+      </c>
+      <c r="D287" s="3">
+        <v>9</v>
+      </c>
+      <c r="E287" t="s">
+        <v>10</v>
+      </c>
+      <c r="F287" s="3">
+        <v>85</v>
+      </c>
+      <c r="G287" s="3">
+        <v>12</v>
+      </c>
+      <c r="H287" s="3">
+        <v>2</v>
+      </c>
+      <c r="I287" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="J287" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="3">
+        <v>287</v>
+      </c>
+      <c r="B288" s="3">
+        <v>3</v>
+      </c>
+      <c r="C288" t="s">
+        <v>7</v>
+      </c>
+      <c r="D288" s="3">
+        <v>9</v>
+      </c>
+      <c r="E288" t="s">
+        <v>10</v>
+      </c>
+      <c r="F288" s="3">
+        <v>86</v>
+      </c>
+      <c r="G288" s="3">
+        <v>13</v>
+      </c>
+      <c r="H288" s="3">
+        <v>1</v>
+      </c>
+      <c r="I288" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="J288" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="3">
+        <v>288</v>
+      </c>
+      <c r="B289" s="3">
+        <v>3</v>
+      </c>
+      <c r="C289" t="s">
+        <v>7</v>
+      </c>
+      <c r="D289" s="3">
+        <v>9</v>
+      </c>
+      <c r="E289" t="s">
+        <v>10</v>
+      </c>
+      <c r="F289" s="3">
+        <v>86</v>
+      </c>
+      <c r="G289" s="3">
+        <v>13</v>
+      </c>
+      <c r="H289" s="3">
+        <v>2</v>
+      </c>
+      <c r="I289" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="J289" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="3">
+        <v>289</v>
+      </c>
+      <c r="B290" s="3">
+        <v>3</v>
+      </c>
+      <c r="C290" t="s">
+        <v>7</v>
+      </c>
+      <c r="D290" s="3">
+        <v>9</v>
+      </c>
+      <c r="E290" t="s">
+        <v>10</v>
+      </c>
+      <c r="F290" s="3">
+        <v>87</v>
+      </c>
+      <c r="G290" s="3">
+        <v>14</v>
+      </c>
+      <c r="H290" s="3">
+        <v>1</v>
+      </c>
+      <c r="I290" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="J290" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A291" s="3">
+        <v>290</v>
+      </c>
+      <c r="B291" s="3">
+        <v>3</v>
+      </c>
+      <c r="C291" t="s">
+        <v>7</v>
+      </c>
+      <c r="D291" s="3">
+        <v>9</v>
+      </c>
+      <c r="E291" t="s">
+        <v>10</v>
+      </c>
+      <c r="F291" s="3">
+        <v>87</v>
+      </c>
+      <c r="G291" s="3">
+        <v>14</v>
+      </c>
+      <c r="H291" s="3">
+        <v>2</v>
+      </c>
+      <c r="I291" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="J291" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="3">
+        <v>291</v>
+      </c>
+      <c r="B292" s="3">
+        <v>3</v>
+      </c>
+      <c r="C292" t="s">
+        <v>7</v>
+      </c>
+      <c r="D292" s="3">
+        <v>9</v>
+      </c>
+      <c r="E292" t="s">
+        <v>10</v>
+      </c>
+      <c r="F292" s="3">
+        <v>88</v>
+      </c>
+      <c r="G292" s="3">
+        <v>15</v>
+      </c>
+      <c r="H292" s="3">
+        <v>1</v>
+      </c>
+      <c r="I292" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="J292" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A293" s="3">
+        <v>292</v>
+      </c>
+      <c r="B293" s="3">
+        <v>3</v>
+      </c>
+      <c r="C293" t="s">
+        <v>7</v>
+      </c>
+      <c r="D293" s="3">
+        <v>9</v>
+      </c>
+      <c r="E293" t="s">
+        <v>10</v>
+      </c>
+      <c r="F293" s="3">
+        <v>88</v>
+      </c>
+      <c r="G293" s="3">
+        <v>15</v>
+      </c>
+      <c r="H293" s="3">
+        <v>2</v>
+      </c>
+      <c r="I293" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="J293" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A294" s="3">
+        <v>293</v>
+      </c>
+      <c r="B294" s="3">
+        <v>3</v>
+      </c>
+      <c r="C294" t="s">
+        <v>7</v>
+      </c>
+      <c r="D294" s="3">
+        <v>9</v>
+      </c>
+      <c r="E294" t="s">
+        <v>10</v>
+      </c>
+      <c r="F294" s="3">
+        <v>89</v>
+      </c>
+      <c r="G294" s="3">
+        <v>16</v>
+      </c>
+      <c r="H294" s="3">
+        <v>1</v>
+      </c>
+      <c r="I294" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="J294" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A295" s="3">
+        <v>294</v>
+      </c>
+      <c r="B295" s="3">
+        <v>3</v>
+      </c>
+      <c r="C295" t="s">
+        <v>7</v>
+      </c>
+      <c r="D295" s="3">
+        <v>9</v>
+      </c>
+      <c r="E295" t="s">
+        <v>10</v>
+      </c>
+      <c r="F295" s="3">
+        <v>89</v>
+      </c>
+      <c r="G295" s="3">
+        <v>16</v>
+      </c>
+      <c r="H295" s="3">
+        <v>2</v>
+      </c>
+      <c r="I295" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="J295" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A296" s="3">
+        <v>295</v>
+      </c>
+      <c r="B296" s="3">
+        <v>3</v>
+      </c>
+      <c r="C296" t="s">
+        <v>7</v>
+      </c>
+      <c r="D296" s="3">
+        <v>9</v>
+      </c>
+      <c r="E296" t="s">
+        <v>10</v>
+      </c>
+      <c r="F296" s="3">
+        <v>90</v>
+      </c>
+      <c r="G296" s="3">
+        <v>17</v>
+      </c>
+      <c r="H296" s="3">
+        <v>1</v>
+      </c>
+      <c r="I296" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="J296" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A297" s="3">
+        <v>296</v>
+      </c>
+      <c r="B297" s="3">
+        <v>3</v>
+      </c>
+      <c r="C297" t="s">
+        <v>7</v>
+      </c>
+      <c r="D297" s="3">
+        <v>9</v>
+      </c>
+      <c r="E297" t="s">
+        <v>10</v>
+      </c>
+      <c r="F297" s="3">
+        <v>90</v>
+      </c>
+      <c r="G297" s="3">
+        <v>17</v>
+      </c>
+      <c r="H297" s="3">
+        <v>2</v>
+      </c>
+      <c r="I297" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="J297" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="3">
+        <v>297</v>
+      </c>
+      <c r="B298" s="3">
+        <v>3</v>
+      </c>
+      <c r="C298" t="s">
+        <v>7</v>
+      </c>
+      <c r="D298" s="3">
+        <v>9</v>
+      </c>
+      <c r="E298" t="s">
+        <v>10</v>
+      </c>
+      <c r="F298" s="3">
+        <v>91</v>
+      </c>
+      <c r="G298" s="3">
+        <v>18</v>
+      </c>
+      <c r="H298" s="3">
+        <v>1</v>
+      </c>
+      <c r="I298" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="J298" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="3">
+        <v>298</v>
+      </c>
+      <c r="B299" s="3">
+        <v>3</v>
+      </c>
+      <c r="C299" t="s">
+        <v>7</v>
+      </c>
+      <c r="D299" s="3">
+        <v>9</v>
+      </c>
+      <c r="E299" t="s">
+        <v>10</v>
+      </c>
+      <c r="F299" s="3">
+        <v>91</v>
+      </c>
+      <c r="G299" s="3">
+        <v>18</v>
+      </c>
+      <c r="H299" s="3">
+        <v>2</v>
+      </c>
+      <c r="I299" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="J299" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A300" s="3">
+        <v>299</v>
+      </c>
+      <c r="B300" s="3">
+        <v>3</v>
+      </c>
+      <c r="C300" t="s">
+        <v>7</v>
+      </c>
+      <c r="D300" s="3">
+        <v>9</v>
+      </c>
+      <c r="E300" t="s">
+        <v>10</v>
+      </c>
+      <c r="F300" s="3">
+        <v>92</v>
+      </c>
+      <c r="G300" s="3">
+        <v>19</v>
+      </c>
+      <c r="H300" s="3">
+        <v>1</v>
+      </c>
+      <c r="I300" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="J300" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A301" s="3">
+        <v>300</v>
+      </c>
+      <c r="B301" s="3">
+        <v>3</v>
+      </c>
+      <c r="C301" t="s">
+        <v>7</v>
+      </c>
+      <c r="D301" s="3">
+        <v>9</v>
+      </c>
+      <c r="E301" t="s">
+        <v>10</v>
+      </c>
+      <c r="F301" s="3">
+        <v>92</v>
+      </c>
+      <c r="G301" s="3">
+        <v>19</v>
+      </c>
+      <c r="H301" s="3">
+        <v>2</v>
+      </c>
+      <c r="I301" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="J301" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="3">
+        <v>301</v>
+      </c>
+      <c r="B302" s="3">
+        <v>3</v>
+      </c>
+      <c r="C302" t="s">
+        <v>7</v>
+      </c>
+      <c r="D302" s="3">
+        <v>9</v>
+      </c>
+      <c r="E302" t="s">
+        <v>10</v>
+      </c>
+      <c r="F302" s="3">
+        <v>93</v>
+      </c>
+      <c r="G302" s="3">
+        <v>20</v>
+      </c>
+      <c r="H302" s="3">
+        <v>1</v>
+      </c>
+      <c r="I302" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="J302" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A303" s="3">
+        <v>302</v>
+      </c>
+      <c r="B303" s="3">
+        <v>3</v>
+      </c>
+      <c r="C303" t="s">
+        <v>7</v>
+      </c>
+      <c r="D303" s="3">
+        <v>9</v>
+      </c>
+      <c r="E303" t="s">
+        <v>10</v>
+      </c>
+      <c r="F303" s="3">
+        <v>93</v>
+      </c>
+      <c r="G303" s="3">
+        <v>20</v>
+      </c>
+      <c r="H303" s="3">
+        <v>2</v>
+      </c>
+      <c r="I303" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="J303" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="3">
+        <v>303</v>
+      </c>
+      <c r="B304" s="3">
+        <v>3</v>
+      </c>
+      <c r="C304" t="s">
+        <v>7</v>
+      </c>
+      <c r="D304" s="3">
+        <v>9</v>
+      </c>
+      <c r="E304" t="s">
+        <v>10</v>
+      </c>
+      <c r="F304" s="3">
+        <v>94</v>
+      </c>
+      <c r="G304" s="3">
+        <v>21</v>
+      </c>
+      <c r="H304" s="3">
+        <v>1</v>
+      </c>
+      <c r="I304" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="J304" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A305" s="3">
+        <v>304</v>
+      </c>
+      <c r="B305" s="3">
+        <v>3</v>
+      </c>
+      <c r="C305" t="s">
+        <v>7</v>
+      </c>
+      <c r="D305" s="3">
+        <v>9</v>
+      </c>
+      <c r="E305" t="s">
+        <v>10</v>
+      </c>
+      <c r="F305" s="3">
+        <v>94</v>
+      </c>
+      <c r="G305" s="3">
+        <v>21</v>
+      </c>
+      <c r="H305" s="3">
+        <v>2</v>
+      </c>
+      <c r="I305" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="J305" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A306" s="3">
+        <v>305</v>
+      </c>
+      <c r="B306" s="3">
+        <v>3</v>
+      </c>
+      <c r="C306" t="s">
+        <v>7</v>
+      </c>
+      <c r="D306" s="3">
+        <v>9</v>
+      </c>
+      <c r="E306" t="s">
+        <v>10</v>
+      </c>
+      <c r="F306" s="3">
+        <v>95</v>
+      </c>
+      <c r="G306" s="3">
+        <v>22</v>
+      </c>
+      <c r="H306" s="3">
+        <v>1</v>
+      </c>
+      <c r="I306" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="J306" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A307" s="3">
+        <v>306</v>
+      </c>
+      <c r="B307" s="3">
+        <v>3</v>
+      </c>
+      <c r="C307" t="s">
+        <v>7</v>
+      </c>
+      <c r="D307" s="3">
+        <v>9</v>
+      </c>
+      <c r="E307" t="s">
+        <v>10</v>
+      </c>
+      <c r="F307" s="3">
+        <v>95</v>
+      </c>
+      <c r="G307" s="3">
+        <v>22</v>
+      </c>
+      <c r="H307" s="3">
+        <v>2</v>
+      </c>
+      <c r="I307" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="J307" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A308" s="3">
+        <v>307</v>
+      </c>
+      <c r="B308" s="3">
+        <v>3</v>
+      </c>
+      <c r="C308" t="s">
+        <v>7</v>
+      </c>
+      <c r="D308" s="3">
+        <v>9</v>
+      </c>
+      <c r="E308" t="s">
+        <v>10</v>
+      </c>
+      <c r="F308" s="3">
+        <v>96</v>
+      </c>
+      <c r="G308" s="3">
+        <v>23</v>
+      </c>
+      <c r="H308" s="3">
+        <v>1</v>
+      </c>
+      <c r="I308" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="J308" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A309" s="3">
+        <v>308</v>
+      </c>
+      <c r="B309" s="3">
+        <v>3</v>
+      </c>
+      <c r="C309" t="s">
+        <v>7</v>
+      </c>
+      <c r="D309" s="3">
+        <v>9</v>
+      </c>
+      <c r="E309" t="s">
+        <v>10</v>
+      </c>
+      <c r="F309" s="3">
+        <v>96</v>
+      </c>
+      <c r="G309" s="3">
+        <v>23</v>
+      </c>
+      <c r="H309" s="3">
+        <v>2</v>
+      </c>
+      <c r="I309" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="J309" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A310" s="3">
+        <v>309</v>
+      </c>
+      <c r="B310" s="7">
+        <v>2</v>
+      </c>
+      <c r="C310" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D310" s="7">
+        <v>6</v>
+      </c>
+      <c r="E310" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F310" s="7">
+        <v>97</v>
+      </c>
+      <c r="G310" s="7">
+        <v>1</v>
+      </c>
+      <c r="H310" s="7">
+        <v>1</v>
+      </c>
+      <c r="I310" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="J310" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A311" s="3">
+        <v>310</v>
+      </c>
+      <c r="B311" s="3">
+        <v>2</v>
+      </c>
+      <c r="C311" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D311" s="3">
+        <v>6</v>
+      </c>
+      <c r="E311" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F311" s="7">
+        <v>97</v>
+      </c>
+      <c r="G311" s="3">
+        <v>2</v>
+      </c>
+      <c r="H311" s="3">
+        <v>2</v>
+      </c>
+      <c r="I311" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="J311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F312" s="3"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:K311"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>